--- a/BOM/BOM_Arm_Motor_Controllers.xlsx
+++ b/BOM/BOM_Arm_Motor_Controllers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tom_Mac/Documents/GitHub/rover-hardware/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B93098-53AD-274C-9CF7-CD559A554A55}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB576CB-5551-2E43-B6B4-CF46C20CF9CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="0" windowWidth="10920" windowHeight="16000" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Total Cost</t>
   </si>
@@ -103,13 +103,100 @@
   </si>
   <si>
     <t>Chip Quick Inc</t>
+  </si>
+  <si>
+    <t>BZT03C30-TR</t>
+  </si>
+  <si>
+    <t>TVS DIODE 24V 42.2V SOD57</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/vishay-semiconductor-diodes-division/BZT03C30-TR/BZT03C30-TRGICT-ND/8284033</t>
+  </si>
+  <si>
+    <t>DRV8304HRHAT</t>
+  </si>
+  <si>
+    <t>38V THREE-PHASE SMART GATE DRIVE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/texas-instruments/DRV8304HRHAT/296-50202-1-ND/9487226</t>
+  </si>
+  <si>
+    <t>PA0071</t>
+  </si>
+  <si>
+    <t>QFN-40 TO DIP-40 SMT ADAPTER</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/chip-quik-inc/PA0071/PA0071-ND/5014784</t>
+  </si>
+  <si>
+    <t>P82B96DGKR</t>
+  </si>
+  <si>
+    <t>IC REDRIVER I2C 1CH 8VSSOP</t>
+  </si>
+  <si>
+    <t>PA0042</t>
+  </si>
+  <si>
+    <t>VSSOP-8 TO DIP-8 SMT ADAPTER</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/chip-quik-inc/PA0042/PA0042-ND/5014741</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/texas-instruments/P82B96DGKR/296-20941-1-ND/1216912</t>
+  </si>
+  <si>
+    <t>MSP430G2744IDA38R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/texas-instruments/MSP430G2744IDA38R/296-35705-1-ND/3918600</t>
+  </si>
+  <si>
+    <t>TSSOP-38 TO DIP-38 SMT ADAPTER</t>
+  </si>
+  <si>
+    <t>PA0039</t>
+  </si>
+  <si>
+    <t>IC MCU 16BIT 32KB FLASH 38TSSOP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/chip-quik-inc/PA0039/PA0039-ND/5014746</t>
+  </si>
+  <si>
+    <t>CSD88539ND</t>
+  </si>
+  <si>
+    <t>MOSFET 2N-CH 60V 15A 8SOIC</t>
+  </si>
+  <si>
+    <t>BOB-13655</t>
+  </si>
+  <si>
+    <t>Sparkfun Electronics</t>
+  </si>
+  <si>
+    <t>SOIC TO DIP ADAPTER 8PIN 1=4 PCS</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/sparkfun-electronics/BOB-13655/1568-1123-ND/5528943</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/texas-instruments/CSD88539ND/296-37304-1-ND/4747948</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -154,13 +241,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,7 +259,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +308,12 @@
         <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,9 +374,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -300,13 +383,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,18 +778,19 @@
   <dimension ref="A1:AMK42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="1"/>
-    <col min="2" max="2" width="18" style="1"/>
-    <col min="3" max="3" width="15.6640625" style="1"/>
-    <col min="4" max="4" width="39.83203125" style="1"/>
-    <col min="5" max="6" width="11" style="1"/>
-    <col min="7" max="7" width="13" style="1"/>
-    <col min="8" max="8" width="12" style="2"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="2" customWidth="1"/>
     <col min="9" max="10" width="11" style="1"/>
     <col min="11" max="11" width="13.5" style="1"/>
     <col min="12" max="1025" width="11" style="1"/>
@@ -715,7 +802,7 @@
       </c>
       <c r="B1" s="4">
         <f>SUM(G3:G191)</f>
-        <v>0</v>
+        <v>129.22999999999999</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -751,7 +838,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -760,22 +847,26 @@
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="12">
         <v>5.91</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12">
+        <f>E3*F3</f>
+        <v>17.73</v>
+      </c>
+      <c r="H3" s="21"/>
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -784,121 +875,294 @@
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="12">
         <v>7.41</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G13" si="0">E4*F4</f>
+        <v>14.82</v>
+      </c>
+      <c r="H4" s="21"/>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>4.55</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5.15</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>14.69</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>14.69</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5.41</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>10.82</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4.47</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>8.94</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4.09</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>12.27</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>9.65</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1.51</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4.13</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>8.26</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -912,7 +1176,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
@@ -922,7 +1186,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
@@ -932,7 +1196,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
@@ -945,8 +1209,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="15"/>
       <c r="E18" s="12"/>
       <c r="F18" s="15"/>
@@ -954,12 +1218,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
@@ -1089,7 +1353,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="13"/>
       <c r="D34" s="15"/>
       <c r="E34" s="12"/>
@@ -1098,7 +1362,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="13"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1107,7 +1371,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="13"/>
       <c r="D36" s="15"/>
       <c r="E36" s="12"/>
@@ -1116,7 +1380,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="13"/>
       <c r="D37" s="15"/>
       <c r="E37" s="12"/>
@@ -1124,17 +1388,17 @@
       <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15"/>
       <c r="E39" s="12"/>
@@ -1142,31 +1406,31 @@
       <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
